--- a/Code/Results/Cases/Case_5_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649406579919599</v>
+        <v>2.124600112295781</v>
       </c>
       <c r="C2">
-        <v>0.1096746004998863</v>
+        <v>0.03465183341640454</v>
       </c>
       <c r="D2">
-        <v>0.001543020672334805</v>
+        <v>0.003026854329077899</v>
       </c>
       <c r="E2">
-        <v>0.02138718001272899</v>
+        <v>0.06674794700206732</v>
       </c>
       <c r="F2">
-        <v>2.698273437014706</v>
+        <v>4.687133108435745</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07646042881100357</v>
+        <v>0.1815652751015673</v>
       </c>
       <c r="K2">
-        <v>1.468696178293044</v>
+        <v>1.585180651292717</v>
       </c>
       <c r="L2">
-        <v>0.1273580379467489</v>
+        <v>0.2706623424019625</v>
       </c>
       <c r="M2">
-        <v>0.2984579112004262</v>
+        <v>0.4434864055175893</v>
       </c>
       <c r="N2">
-        <v>2.86735197675317</v>
+        <v>4.954385763929437</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.484460763048531</v>
+        <v>2.095091171269985</v>
       </c>
       <c r="C3">
-        <v>0.09458953894291255</v>
+        <v>0.03053409699843712</v>
       </c>
       <c r="D3">
-        <v>0.001550590678083275</v>
+        <v>0.003034667849541428</v>
       </c>
       <c r="E3">
-        <v>0.02129857069222663</v>
+        <v>0.0669464004178808</v>
       </c>
       <c r="F3">
-        <v>2.604865197741873</v>
+        <v>4.678831105748003</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0771857648147698</v>
+        <v>0.1820829666190562</v>
       </c>
       <c r="K3">
-        <v>1.306736191038169</v>
+        <v>1.553133237959116</v>
       </c>
       <c r="L3">
-        <v>0.1189875045711162</v>
+        <v>0.2701311971988289</v>
       </c>
       <c r="M3">
-        <v>0.2710046438077818</v>
+        <v>0.4391798820445239</v>
       </c>
       <c r="N3">
-        <v>2.880533295623508</v>
+        <v>4.962651873587788</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.385320928712929</v>
+        <v>2.078074266702032</v>
       </c>
       <c r="C4">
-        <v>0.08543682845136402</v>
+        <v>0.02801690480482932</v>
       </c>
       <c r="D4">
-        <v>0.001554458451920482</v>
+        <v>0.003041697496320772</v>
       </c>
       <c r="E4">
-        <v>0.02125786027941245</v>
+        <v>0.06708069524934768</v>
       </c>
       <c r="F4">
-        <v>2.550738496194356</v>
+        <v>4.675267130709756</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07767018017527327</v>
+        <v>0.1824263713628191</v>
       </c>
       <c r="K4">
-        <v>1.209197439303182</v>
+        <v>1.534345845640416</v>
       </c>
       <c r="L4">
-        <v>0.1140035219677955</v>
+        <v>0.2699131463232121</v>
       </c>
       <c r="M4">
-        <v>0.2545335744349266</v>
+        <v>0.4367519697316027</v>
       </c>
       <c r="N4">
-        <v>2.890777064034083</v>
+        <v>4.968628249207086</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345414421571547</v>
+        <v>2.071417062371182</v>
       </c>
       <c r="C5">
-        <v>0.08173034977588145</v>
+        <v>0.02699386853328178</v>
       </c>
       <c r="D5">
-        <v>0.001555789913636474</v>
+        <v>0.003045128268037267</v>
       </c>
       <c r="E5">
-        <v>0.02124464947311555</v>
+        <v>0.06713855970852567</v>
       </c>
       <c r="F5">
-        <v>2.529448218769204</v>
+        <v>4.674200608056253</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07787727744001849</v>
+        <v>0.1825727468247642</v>
       </c>
       <c r="K5">
-        <v>1.169885574742409</v>
+        <v>1.526913707004326</v>
       </c>
       <c r="L5">
-        <v>0.1120093749884177</v>
+        <v>0.2698515205998717</v>
       </c>
       <c r="M5">
-        <v>0.2479110930260617</v>
+        <v>0.4358170429631869</v>
       </c>
       <c r="N5">
-        <v>2.895472499035549</v>
+        <v>4.97129024268223</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.338816575043353</v>
+        <v>2.070328396972457</v>
       </c>
       <c r="C6">
-        <v>0.08111618242622853</v>
+        <v>0.02682415803437266</v>
       </c>
       <c r="D6">
-        <v>0.001555994995470655</v>
+        <v>0.003045732282797697</v>
       </c>
       <c r="E6">
-        <v>0.02124265811061843</v>
+        <v>0.06714835786953444</v>
       </c>
       <c r="F6">
-        <v>2.525958050979142</v>
+        <v>4.674046822314338</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07791224773706062</v>
+        <v>0.1825974414140692</v>
       </c>
       <c r="K6">
-        <v>1.163382993221774</v>
+        <v>1.525693131235755</v>
       </c>
       <c r="L6">
-        <v>0.1116804120172006</v>
+        <v>0.2698429340735728</v>
       </c>
       <c r="M6">
-        <v>0.2468166433988834</v>
+        <v>0.4356650909847914</v>
       </c>
       <c r="N6">
-        <v>2.896283089362953</v>
+        <v>4.971745949734597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.384780792030512</v>
+        <v>2.077983362062412</v>
       </c>
       <c r="C7">
-        <v>0.08538675252162875</v>
+        <v>0.02800309675768631</v>
       </c>
       <c r="D7">
-        <v>0.001554477455776748</v>
+        <v>0.00304174146638081</v>
       </c>
       <c r="E7">
-        <v>0.02125766851442634</v>
+        <v>0.06708146291070705</v>
       </c>
       <c r="F7">
-        <v>2.550448320036679</v>
+        <v>4.675251184742052</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07767293407145637</v>
+        <v>0.182428319360044</v>
       </c>
       <c r="K7">
-        <v>1.208665555497902</v>
+        <v>1.534244706596866</v>
       </c>
       <c r="L7">
-        <v>0.1139764818012949</v>
+        <v>0.2699122048823099</v>
       </c>
       <c r="M7">
-        <v>0.254443907780054</v>
+        <v>0.4367391403477434</v>
       </c>
       <c r="N7">
-        <v>2.890838303812501</v>
+        <v>4.968663232395954</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.592062341327193</v>
+        <v>2.114196927825617</v>
       </c>
       <c r="C8">
-        <v>0.1044478868033423</v>
+        <v>0.03322969673263287</v>
       </c>
       <c r="D8">
-        <v>0.001545760322517964</v>
+        <v>0.003029088012956649</v>
       </c>
       <c r="E8">
-        <v>0.02135374409047852</v>
+        <v>0.06681379654078778</v>
       </c>
       <c r="F8">
-        <v>2.665368913794126</v>
+        <v>4.683952420569966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07670233944075555</v>
+        <v>0.18173848207981</v>
       </c>
       <c r="K8">
-        <v>1.412430011425357</v>
+        <v>1.573946068750047</v>
       </c>
       <c r="L8">
-        <v>0.1244381887102861</v>
+        <v>0.2704568051335983</v>
       </c>
       <c r="M8">
-        <v>0.2889075023235925</v>
+        <v>0.4419566626578231</v>
       </c>
       <c r="N8">
-        <v>2.871438289775668</v>
+        <v>4.957048935011983</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.017647178230334</v>
+        <v>2.193947096612817</v>
       </c>
       <c r="C9">
-        <v>0.1429043299553854</v>
+        <v>0.04357022541915967</v>
       </c>
       <c r="D9">
-        <v>0.001525254487303229</v>
+        <v>0.003021782674968776</v>
       </c>
       <c r="E9">
-        <v>0.02165406794558322</v>
+        <v>0.06638724160042742</v>
       </c>
       <c r="F9">
-        <v>2.918505265630998</v>
+        <v>4.713178617154227</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07511508993581195</v>
+        <v>0.1805877909149949</v>
       </c>
       <c r="K9">
-        <v>1.829247387032723</v>
+        <v>1.658862247266512</v>
       </c>
       <c r="L9">
-        <v>0.1462982921680336</v>
+        <v>0.2723801896234903</v>
       </c>
       <c r="M9">
-        <v>0.3599055749931352</v>
+        <v>0.4539023922264818</v>
       </c>
       <c r="N9">
-        <v>2.851420345105439</v>
+        <v>4.941422483043652</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.345240785985823</v>
+        <v>2.257866694958125</v>
       </c>
       <c r="C10">
-        <v>0.1721337147235715</v>
+        <v>0.05122788684069235</v>
       </c>
       <c r="D10">
-        <v>0.001513015753895175</v>
+        <v>0.003026831374852712</v>
       </c>
       <c r="E10">
-        <v>0.02194798465299375</v>
+        <v>0.06613327722510931</v>
       </c>
       <c r="F10">
-        <v>3.124730063367338</v>
+        <v>4.742067719299669</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07415102133300344</v>
+        <v>0.1798648009065875</v>
       </c>
       <c r="K10">
-        <v>2.149218884481257</v>
+        <v>1.725566787454284</v>
       </c>
       <c r="L10">
-        <v>0.1633468808654328</v>
+        <v>0.2743124820920073</v>
       </c>
       <c r="M10">
-        <v>0.4146943030166526</v>
+        <v>0.4637227066817147</v>
       </c>
       <c r="N10">
-        <v>2.84916511089169</v>
+        <v>4.93430282913306</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.498317169770019</v>
+        <v>2.288103256788816</v>
       </c>
       <c r="C11">
-        <v>0.1857219727413053</v>
+        <v>0.05472578712617349</v>
       </c>
       <c r="D11">
-        <v>0.001509502432346821</v>
+        <v>0.003031338557825336</v>
       </c>
       <c r="E11">
-        <v>0.02209887395376686</v>
+        <v>0.06603053666031045</v>
       </c>
       <c r="F11">
-        <v>3.223761536271809</v>
+        <v>4.756821572446995</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07375865535558646</v>
+        <v>0.1795623159598598</v>
       </c>
       <c r="K11">
-        <v>2.298562440207206</v>
+        <v>1.756852895071972</v>
       </c>
       <c r="L11">
-        <v>0.1713586856996798</v>
+        <v>0.2753038214120735</v>
       </c>
       <c r="M11">
-        <v>0.4403237292581323</v>
+        <v>0.4684167409202189</v>
       </c>
       <c r="N11">
-        <v>2.851206322434081</v>
+        <v>4.932011715581297</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.556940082129245</v>
+        <v>2.299719653437592</v>
       </c>
       <c r="C12">
-        <v>0.1909167858636494</v>
+        <v>0.05605249330488959</v>
       </c>
       <c r="D12">
-        <v>0.001508618927719141</v>
+        <v>0.003033359036668237</v>
       </c>
       <c r="E12">
-        <v>0.02215860145917592</v>
+        <v>0.06599346164800135</v>
       </c>
       <c r="F12">
-        <v>3.262088236959158</v>
+        <v>4.762640239423661</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07361693796068458</v>
+        <v>0.1794515574387177</v>
       </c>
       <c r="K12">
-        <v>2.355732934326994</v>
+        <v>1.768835643942509</v>
       </c>
       <c r="L12">
-        <v>0.1744332035813088</v>
+        <v>0.2756953232582902</v>
       </c>
       <c r="M12">
-        <v>0.4501427496872097</v>
+        <v>0.4702268103814973</v>
       </c>
       <c r="N12">
-        <v>2.852454248232846</v>
+        <v>4.931280451467188</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.544284156378808</v>
+        <v>2.297210454450749</v>
       </c>
       <c r="C13">
-        <v>0.1897956758284352</v>
+        <v>0.05576666785810858</v>
       </c>
       <c r="D13">
-        <v>0.001508786608075852</v>
+        <v>0.003032910001953937</v>
       </c>
       <c r="E13">
-        <v>0.0221456209114006</v>
+        <v>0.06600136513221511</v>
       </c>
       <c r="F13">
-        <v>3.253795898772637</v>
+        <v>4.761376781971109</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07364715035243918</v>
+        <v>0.1794752430648643</v>
       </c>
       <c r="K13">
-        <v>2.343391552997048</v>
+        <v>1.766248924478049</v>
       </c>
       <c r="L13">
-        <v>0.1737691806727071</v>
+        <v>0.2756102909237512</v>
       </c>
       <c r="M13">
-        <v>0.4480227830035659</v>
+        <v>0.4698355332598751</v>
       </c>
       <c r="N13">
-        <v>2.852163783738519</v>
+        <v>4.931431877923472</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.503126514021858</v>
+        <v>2.28905560976159</v>
       </c>
       <c r="C14">
-        <v>0.1861483219029196</v>
+        <v>0.05483489307577827</v>
       </c>
       <c r="D14">
-        <v>0.001509419819004876</v>
+        <v>0.003031498518937248</v>
       </c>
       <c r="E14">
-        <v>0.02210373516338571</v>
+        <v>0.06602744983675546</v>
       </c>
       <c r="F14">
-        <v>3.226897692893942</v>
+        <v>4.757295634603963</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07374685729224595</v>
+        <v>0.1795531279775915</v>
       </c>
       <c r="K14">
-        <v>2.303253076286779</v>
+        <v>1.75783601017028</v>
       </c>
       <c r="L14">
-        <v>0.1716107911726183</v>
+        <v>0.2753357080556995</v>
       </c>
       <c r="M14">
-        <v>0.44112919270448</v>
+        <v>0.4685650046134029</v>
       </c>
       <c r="N14">
-        <v>2.851299264461204</v>
+        <v>4.931948821413073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.478004030910483</v>
+        <v>2.284082204215622</v>
       </c>
       <c r="C15">
-        <v>0.1839208535769359</v>
+        <v>0.05426443287119298</v>
       </c>
       <c r="D15">
-        <v>0.001509870865013418</v>
+        <v>0.003030674677759748</v>
       </c>
       <c r="E15">
-        <v>0.02207841981279834</v>
+        <v>0.06604366562141628</v>
       </c>
       <c r="F15">
-        <v>3.210531644824954</v>
+        <v>4.754825985474525</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07380883136702998</v>
+        <v>0.1796013274462016</v>
       </c>
       <c r="K15">
-        <v>2.278749777889146</v>
+        <v>1.752700485840052</v>
       </c>
       <c r="L15">
-        <v>0.1702941232423569</v>
+        <v>0.2751696137626496</v>
       </c>
       <c r="M15">
-        <v>0.4369218615772326</v>
+        <v>0.4677910050555738</v>
       </c>
       <c r="N15">
-        <v>2.850832641178926</v>
+        <v>4.932283220370749</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.335324548996653</v>
+        <v>2.255913971357757</v>
       </c>
       <c r="C16">
-        <v>0.1712521656118042</v>
+        <v>0.05099958535612359</v>
       </c>
       <c r="D16">
-        <v>0.001513299009467062</v>
+        <v>0.003026580942293577</v>
       </c>
       <c r="E16">
-        <v>0.02193847927388148</v>
+        <v>0.06614024818817388</v>
       </c>
       <c r="F16">
-        <v>3.118369398867671</v>
+        <v>4.741135949515012</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07417761126429312</v>
+        <v>0.1798850994129051</v>
       </c>
       <c r="K16">
-        <v>2.139541194313381</v>
+        <v>1.723541114289503</v>
       </c>
       <c r="L16">
-        <v>0.1628287619038815</v>
+        <v>0.2742499518341859</v>
       </c>
       <c r="M16">
-        <v>0.4130345798059452</v>
+        <v>0.4634204974345977</v>
       </c>
       <c r="N16">
-        <v>2.849096253286106</v>
+        <v>4.934471632974137</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.248883305537902</v>
+        <v>2.238930412144043</v>
       </c>
       <c r="C17">
-        <v>0.1635599954099973</v>
+        <v>0.04900043417136146</v>
       </c>
       <c r="D17">
-        <v>0.001516027336166736</v>
+        <v>0.003024632721944087</v>
       </c>
       <c r="E17">
-        <v>0.02185711170327931</v>
+        <v>0.06620276802622627</v>
       </c>
       <c r="F17">
-        <v>3.063218717301339</v>
+        <v>4.733150362289336</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07441582726296758</v>
+        <v>0.1800659396659707</v>
       </c>
       <c r="K17">
-        <v>2.055160737115784</v>
+        <v>1.705893975698416</v>
       </c>
       <c r="L17">
-        <v>0.1583172200673388</v>
+        <v>0.2737145038059552</v>
       </c>
       <c r="M17">
-        <v>0.3985696019815634</v>
+        <v>0.4607973574289872</v>
       </c>
       <c r="N17">
-        <v>2.848839677170403</v>
+        <v>4.936056910807153</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.199541220069193</v>
+        <v>2.229271042079461</v>
       </c>
       <c r="C18">
-        <v>0.1591626364736669</v>
+        <v>0.04785192642616209</v>
       </c>
       <c r="D18">
-        <v>0.001517779304998079</v>
+        <v>0.003023720459290224</v>
       </c>
       <c r="E18">
-        <v>0.02181192100537466</v>
+        <v>0.06623993205519074</v>
       </c>
       <c r="F18">
-        <v>3.031983805107274</v>
+        <v>4.728709003989692</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07455717634511139</v>
+        <v>0.1801724404020586</v>
       </c>
       <c r="K18">
-        <v>2.006979014029156</v>
+        <v>1.695832465619191</v>
       </c>
       <c r="L18">
-        <v>0.1557461806896967</v>
+        <v>0.2734171042084412</v>
       </c>
       <c r="M18">
-        <v>0.3903153602431146</v>
+        <v>0.4593099406316412</v>
       </c>
       <c r="N18">
-        <v>2.848978571734733</v>
+        <v>4.937057914321827</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182897400005515</v>
+        <v>2.226019294536343</v>
       </c>
       <c r="C19">
-        <v>0.1576781889110777</v>
+        <v>0.04746329174345476</v>
       </c>
       <c r="D19">
-        <v>0.001518399704846907</v>
+        <v>0.003023447488502029</v>
       </c>
       <c r="E19">
-        <v>0.0217968933062398</v>
+        <v>0.06625272225028311</v>
       </c>
       <c r="F19">
-        <v>3.02148955056461</v>
+        <v>4.727231301377387</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07460577263518076</v>
+        <v>0.1802089270756912</v>
       </c>
       <c r="K19">
-        <v>1.9907238093584</v>
+        <v>1.692441040157433</v>
       </c>
       <c r="L19">
-        <v>0.1548796634594112</v>
+        <v>0.2733182277686339</v>
       </c>
       <c r="M19">
-        <v>0.3875315344081471</v>
+        <v>0.4588099946198199</v>
       </c>
       <c r="N19">
-        <v>2.84907382198088</v>
+        <v>4.937412154290939</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.258045633836446</v>
+        <v>2.240727048755502</v>
       </c>
       <c r="C20">
-        <v>0.1643759979084649</v>
+        <v>0.0492131069745767</v>
       </c>
       <c r="D20">
-        <v>0.001515716982930293</v>
+        <v>0.003024818585610767</v>
       </c>
       <c r="E20">
-        <v>0.02186560600112575</v>
+        <v>0.06619598810670535</v>
       </c>
       <c r="F20">
-        <v>3.069038749893636</v>
+        <v>4.733984737928139</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07439001873001594</v>
+        <v>0.1800464316815926</v>
       </c>
       <c r="K20">
-        <v>2.064106278236125</v>
+        <v>1.707763368498803</v>
       </c>
       <c r="L20">
-        <v>0.1587949837660148</v>
+        <v>0.2737704089543271</v>
       </c>
       <c r="M20">
-        <v>0.4001025461879735</v>
+        <v>0.4610743865949232</v>
       </c>
       <c r="N20">
-        <v>2.848837106677095</v>
+        <v>4.935878923628721</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.515197080441112</v>
+        <v>2.29144636923229</v>
       </c>
       <c r="C21">
-        <v>0.1872182400190781</v>
+        <v>0.05510851972105968</v>
       </c>
       <c r="D21">
-        <v>0.001509220350079943</v>
+        <v>0.003031904623958859</v>
       </c>
       <c r="E21">
-        <v>0.02211596675526284</v>
+        <v>0.06601973851145448</v>
       </c>
       <c r="F21">
-        <v>3.234775304335983</v>
+        <v>4.758488078988023</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07371738281818097</v>
+        <v>0.1795301486303771</v>
       </c>
       <c r="K21">
-        <v>2.315025349722447</v>
+        <v>1.760303413351323</v>
       </c>
       <c r="L21">
-        <v>0.172243628239201</v>
+        <v>0.2754159230580839</v>
       </c>
       <c r="M21">
-        <v>0.4431508177549404</v>
+        <v>0.4689373070211005</v>
       </c>
       <c r="N21">
-        <v>2.85154001685936</v>
+        <v>4.931793282100358</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.687124762461281</v>
+        <v>2.32556457349483</v>
       </c>
       <c r="C22">
-        <v>0.2024378967310128</v>
+        <v>0.05897393911791937</v>
       </c>
       <c r="D22">
-        <v>0.001507671208337058</v>
+        <v>0.003038362459903965</v>
       </c>
       <c r="E22">
-        <v>0.02229474690673694</v>
+        <v>0.06591521553856428</v>
       </c>
       <c r="F22">
-        <v>3.347946565328584</v>
+        <v>4.775852926325797</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07331789832889157</v>
+        <v>0.179214790133063</v>
       </c>
       <c r="K22">
-        <v>2.482652888675801</v>
+        <v>1.795430437648605</v>
       </c>
       <c r="L22">
-        <v>0.1812718828173985</v>
+        <v>0.2765852005556368</v>
       </c>
       <c r="M22">
-        <v>0.4719547199340255</v>
+        <v>0.4742658235654815</v>
       </c>
       <c r="N22">
-        <v>2.856093286216975</v>
+        <v>4.92991775065758</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.594983928139015</v>
+        <v>2.307266345851474</v>
       </c>
       <c r="C23">
-        <v>0.1942856450663584</v>
+        <v>0.05690973583598691</v>
       </c>
       <c r="D23">
-        <v>0.001508193484081488</v>
+        <v>0.00303474998392339</v>
       </c>
       <c r="E23">
-        <v>0.02219789953383966</v>
+        <v>0.06597002821857156</v>
       </c>
       <c r="F23">
-        <v>3.287074065488468</v>
+        <v>4.766461443798335</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07352736083059952</v>
+        <v>0.1793810879011701</v>
       </c>
       <c r="K23">
-        <v>2.392828114849323</v>
+        <v>1.776610302738959</v>
       </c>
       <c r="L23">
-        <v>0.176430143876253</v>
+        <v>0.2759525651523305</v>
       </c>
       <c r="M23">
-        <v>0.4565159289927649</v>
+        <v>0.4714045617622205</v>
       </c>
       <c r="N23">
-        <v>2.853396001258261</v>
+        <v>4.930846023776724</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.253902247620829</v>
+        <v>2.239914463175921</v>
       </c>
       <c r="C24">
-        <v>0.1640070059377621</v>
+        <v>0.04911695501792224</v>
       </c>
       <c r="D24">
-        <v>0.001515856733425025</v>
+        <v>0.00302473390928526</v>
       </c>
       <c r="E24">
-        <v>0.02186176078973645</v>
+        <v>0.06619904950601896</v>
       </c>
       <c r="F24">
-        <v>3.066406048733739</v>
+        <v>4.733607050475001</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07440167309313139</v>
+        <v>0.1800552433501998</v>
       </c>
       <c r="K24">
-        <v>2.06006097748562</v>
+        <v>1.706917954151777</v>
       </c>
       <c r="L24">
-        <v>0.1585789163533349</v>
+        <v>0.2737451017245149</v>
       </c>
       <c r="M24">
-        <v>0.3994093103207206</v>
+        <v>0.4609490773455818</v>
       </c>
       <c r="N24">
-        <v>2.848837379235917</v>
+        <v>4.935959112476127</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.900149258831789</v>
+        <v>2.171437214005039</v>
       </c>
       <c r="C25">
-        <v>0.1323543538715199</v>
+        <v>0.0407625729324792</v>
       </c>
       <c r="D25">
-        <v>0.001530722905662252</v>
+        <v>0.00302191177864497</v>
       </c>
       <c r="E25">
-        <v>0.0215603505612938</v>
+        <v>0.06649216269014779</v>
       </c>
       <c r="F25">
-        <v>2.846726973374146</v>
+        <v>4.703969869793028</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07550972685495516</v>
+        <v>0.1808775294856453</v>
       </c>
       <c r="K25">
-        <v>1.71432566044146</v>
+        <v>1.635132979706299</v>
       </c>
       <c r="L25">
-        <v>0.1402240909842689</v>
+        <v>0.2717685249062356</v>
       </c>
       <c r="M25">
-        <v>0.3402797101121209</v>
+        <v>0.4504873723807137</v>
       </c>
       <c r="N25">
-        <v>2.854762989011718</v>
+        <v>4.944884215423258</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.124600112295781</v>
+        <v>1.6494065799194</v>
       </c>
       <c r="C2">
-        <v>0.03465183341640454</v>
+        <v>0.1096746004995595</v>
       </c>
       <c r="D2">
-        <v>0.003026854329077899</v>
+        <v>0.001543020672222895</v>
       </c>
       <c r="E2">
-        <v>0.06674794700206732</v>
+        <v>0.021387180012721</v>
       </c>
       <c r="F2">
-        <v>4.687133108435745</v>
+        <v>2.698273437014791</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1815652751015673</v>
+        <v>0.07646042881096982</v>
       </c>
       <c r="K2">
-        <v>1.585180651292717</v>
+        <v>1.468696178293015</v>
       </c>
       <c r="L2">
-        <v>0.2706623424019625</v>
+        <v>0.12735803794682</v>
       </c>
       <c r="M2">
-        <v>0.4434864055175893</v>
+        <v>0.2984579112004369</v>
       </c>
       <c r="N2">
-        <v>4.954385763929437</v>
+        <v>2.86735197675317</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.095091171269985</v>
+        <v>1.48446076304856</v>
       </c>
       <c r="C3">
-        <v>0.03053409699843712</v>
+        <v>0.09458953894302624</v>
       </c>
       <c r="D3">
-        <v>0.003034667849541428</v>
+        <v>0.001550590678068176</v>
       </c>
       <c r="E3">
-        <v>0.0669464004178808</v>
+        <v>0.0212985706922213</v>
       </c>
       <c r="F3">
-        <v>4.678831105748003</v>
+        <v>2.60486519774183</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1820829666190562</v>
+        <v>0.0771857648148</v>
       </c>
       <c r="K3">
-        <v>1.553133237959116</v>
+        <v>1.306736191038198</v>
       </c>
       <c r="L3">
-        <v>0.2701311971988289</v>
+        <v>0.1189875045710451</v>
       </c>
       <c r="M3">
-        <v>0.4391798820445239</v>
+        <v>0.2710046438077889</v>
       </c>
       <c r="N3">
-        <v>4.962651873587788</v>
+        <v>2.88053329562355</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.078074266702032</v>
+        <v>1.385320928713156</v>
       </c>
       <c r="C4">
-        <v>0.02801690480482932</v>
+        <v>0.08543682845153455</v>
       </c>
       <c r="D4">
-        <v>0.003041697496320772</v>
+        <v>0.001554458451900054</v>
       </c>
       <c r="E4">
-        <v>0.06708069524934768</v>
+        <v>0.02125786027935916</v>
       </c>
       <c r="F4">
-        <v>4.675267130709756</v>
+        <v>2.550738496194342</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1824263713628191</v>
+        <v>0.0776701801752786</v>
       </c>
       <c r="K4">
-        <v>1.534345845640416</v>
+        <v>1.20919743930321</v>
       </c>
       <c r="L4">
-        <v>0.2699131463232121</v>
+        <v>0.1140035219678239</v>
       </c>
       <c r="M4">
-        <v>0.4367519697316027</v>
+        <v>0.2545335744349373</v>
       </c>
       <c r="N4">
-        <v>4.968628249207086</v>
+        <v>2.890777064033927</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.071417062371182</v>
+        <v>1.34541442157149</v>
       </c>
       <c r="C5">
-        <v>0.02699386853328178</v>
+        <v>0.08173034977588145</v>
       </c>
       <c r="D5">
-        <v>0.003045128268037267</v>
+        <v>0.00155578991384786</v>
       </c>
       <c r="E5">
-        <v>0.06713855970852567</v>
+        <v>0.02124464947311555</v>
       </c>
       <c r="F5">
-        <v>4.674200608056253</v>
+        <v>2.529448218769204</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1825727468247642</v>
+        <v>0.07787727743994743</v>
       </c>
       <c r="K5">
-        <v>1.526913707004326</v>
+        <v>1.169885574742352</v>
       </c>
       <c r="L5">
-        <v>0.2698515205998717</v>
+        <v>0.1120093749884177</v>
       </c>
       <c r="M5">
-        <v>0.4358170429631869</v>
+        <v>0.2479110930260617</v>
       </c>
       <c r="N5">
-        <v>4.97129024268223</v>
+        <v>2.895472499035563</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.070328396972457</v>
+        <v>1.338816575043239</v>
       </c>
       <c r="C6">
-        <v>0.02682415803437266</v>
+        <v>0.08111618242610064</v>
       </c>
       <c r="D6">
-        <v>0.003045732282797697</v>
+        <v>0.001555994995674048</v>
       </c>
       <c r="E6">
-        <v>0.06714835786953444</v>
+        <v>0.02124265811065396</v>
       </c>
       <c r="F6">
-        <v>4.674046822314338</v>
+        <v>2.525958050979071</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1825974414140692</v>
+        <v>0.0779122477370251</v>
       </c>
       <c r="K6">
-        <v>1.525693131235755</v>
+        <v>1.163382993221774</v>
       </c>
       <c r="L6">
-        <v>0.2698429340735728</v>
+        <v>0.1116804120171935</v>
       </c>
       <c r="M6">
-        <v>0.4356650909847914</v>
+        <v>0.2468166433988799</v>
       </c>
       <c r="N6">
-        <v>4.971745949734597</v>
+        <v>2.896283089362854</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.077983362062412</v>
+        <v>1.38478079203071</v>
       </c>
       <c r="C7">
-        <v>0.02800309675768631</v>
+        <v>0.08538675252140138</v>
       </c>
       <c r="D7">
-        <v>0.00304174146638081</v>
+        <v>0.001554477456000569</v>
       </c>
       <c r="E7">
-        <v>0.06708146291070705</v>
+        <v>0.02125766851443078</v>
       </c>
       <c r="F7">
-        <v>4.675251184742052</v>
+        <v>2.550448320036679</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.182428319360044</v>
+        <v>0.07767293407154163</v>
       </c>
       <c r="K7">
-        <v>1.534244706596866</v>
+        <v>1.208665555497902</v>
       </c>
       <c r="L7">
-        <v>0.2699122048823099</v>
+        <v>0.1139764818012736</v>
       </c>
       <c r="M7">
-        <v>0.4367391403477434</v>
+        <v>0.2544439077800718</v>
       </c>
       <c r="N7">
-        <v>4.968663232395954</v>
+        <v>2.890838303812586</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.114196927825617</v>
+        <v>1.592062341327306</v>
       </c>
       <c r="C8">
-        <v>0.03322969673263287</v>
+        <v>0.1044478868034133</v>
       </c>
       <c r="D8">
-        <v>0.003029088012956649</v>
+        <v>0.001545760322511747</v>
       </c>
       <c r="E8">
-        <v>0.06681379654078778</v>
+        <v>0.02135374409050605</v>
       </c>
       <c r="F8">
-        <v>4.683952420569966</v>
+        <v>2.665368913794111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.18173848207981</v>
+        <v>0.07670233944073779</v>
       </c>
       <c r="K8">
-        <v>1.573946068750047</v>
+        <v>1.412430011425329</v>
       </c>
       <c r="L8">
-        <v>0.2704568051335983</v>
+        <v>0.1244381887103216</v>
       </c>
       <c r="M8">
-        <v>0.4419566626578231</v>
+        <v>0.2889075023235996</v>
       </c>
       <c r="N8">
-        <v>4.957048935011983</v>
+        <v>2.871438289775696</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.193947096612817</v>
+        <v>2.017647178230447</v>
       </c>
       <c r="C9">
-        <v>0.04357022541915967</v>
+        <v>0.1429043299556128</v>
       </c>
       <c r="D9">
-        <v>0.003021782674968776</v>
+        <v>0.001525254487404482</v>
       </c>
       <c r="E9">
-        <v>0.06638724160042742</v>
+        <v>0.02165406794556279</v>
       </c>
       <c r="F9">
-        <v>4.713178617154227</v>
+        <v>2.918505265630998</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1805877909149949</v>
+        <v>0.07511508993572846</v>
       </c>
       <c r="K9">
-        <v>1.658862247266512</v>
+        <v>1.829247387032609</v>
       </c>
       <c r="L9">
-        <v>0.2723801896234903</v>
+        <v>0.1462982921678915</v>
       </c>
       <c r="M9">
-        <v>0.4539023922264818</v>
+        <v>0.3599055749931281</v>
       </c>
       <c r="N9">
-        <v>4.941422483043652</v>
+        <v>2.851420345105453</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.257866694958125</v>
+        <v>2.345240785985766</v>
       </c>
       <c r="C10">
-        <v>0.05122788684069235</v>
+        <v>0.1721337147237847</v>
       </c>
       <c r="D10">
-        <v>0.003026831374852712</v>
+        <v>0.00151301575388807</v>
       </c>
       <c r="E10">
-        <v>0.06613327722510931</v>
+        <v>0.02194798465299108</v>
       </c>
       <c r="F10">
-        <v>4.742067719299669</v>
+        <v>3.124730063367338</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1798648009065875</v>
+        <v>0.07415102133292883</v>
       </c>
       <c r="K10">
-        <v>1.725566787454284</v>
+        <v>2.149218884481257</v>
       </c>
       <c r="L10">
-        <v>0.2743124820920073</v>
+        <v>0.1633468808655181</v>
       </c>
       <c r="M10">
-        <v>0.4637227066817147</v>
+        <v>0.4146943030166526</v>
       </c>
       <c r="N10">
-        <v>4.93430282913306</v>
+        <v>2.849165110891661</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.288103256788816</v>
+        <v>2.498317169769905</v>
       </c>
       <c r="C11">
-        <v>0.05472578712617349</v>
+        <v>0.1857219727410779</v>
       </c>
       <c r="D11">
-        <v>0.003031338557825336</v>
+        <v>0.001509502432709198</v>
       </c>
       <c r="E11">
-        <v>0.06603053666031045</v>
+        <v>0.02209887395373844</v>
       </c>
       <c r="F11">
-        <v>4.756821572446995</v>
+        <v>3.223761536271809</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1795623159598598</v>
+        <v>0.07375865535553849</v>
       </c>
       <c r="K11">
-        <v>1.756852895071972</v>
+        <v>2.298562440207206</v>
       </c>
       <c r="L11">
-        <v>0.2753038214120735</v>
+        <v>0.1713586856996798</v>
       </c>
       <c r="M11">
-        <v>0.4684167409202189</v>
+        <v>0.4403237292581466</v>
       </c>
       <c r="N11">
-        <v>4.932011715581297</v>
+        <v>2.851206322434081</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.299719653437592</v>
+        <v>2.556940082129302</v>
       </c>
       <c r="C12">
-        <v>0.05605249330488959</v>
+        <v>0.1909167858634078</v>
       </c>
       <c r="D12">
-        <v>0.003033359036668237</v>
+        <v>0.001508618927570815</v>
       </c>
       <c r="E12">
-        <v>0.06599346164800135</v>
+        <v>0.02215860145919457</v>
       </c>
       <c r="F12">
-        <v>4.762640239423661</v>
+        <v>3.262088236959073</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1794515574387177</v>
+        <v>0.07361693796061708</v>
       </c>
       <c r="K12">
-        <v>1.768835643942509</v>
+        <v>2.355732934327136</v>
       </c>
       <c r="L12">
-        <v>0.2756953232582902</v>
+        <v>0.1744332035812519</v>
       </c>
       <c r="M12">
-        <v>0.4702268103814973</v>
+        <v>0.4501427496871955</v>
       </c>
       <c r="N12">
-        <v>4.931280451467188</v>
+        <v>2.852454248232817</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.297210454450749</v>
+        <v>2.544284156378922</v>
       </c>
       <c r="C13">
-        <v>0.05576666785810858</v>
+        <v>0.1897956758281794</v>
       </c>
       <c r="D13">
-        <v>0.003032910001953937</v>
+        <v>0.001508786608061641</v>
       </c>
       <c r="E13">
-        <v>0.06600136513221511</v>
+        <v>0.02214562091142813</v>
       </c>
       <c r="F13">
-        <v>4.761376781971109</v>
+        <v>3.25379589877258</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1794752430648643</v>
+        <v>0.07364715035241609</v>
       </c>
       <c r="K13">
-        <v>1.766248924478049</v>
+        <v>2.343391552997076</v>
       </c>
       <c r="L13">
-        <v>0.2756102909237512</v>
+        <v>0.1737691806726716</v>
       </c>
       <c r="M13">
-        <v>0.4698355332598751</v>
+        <v>0.4480227830035588</v>
       </c>
       <c r="N13">
-        <v>4.931431877923472</v>
+        <v>2.852163783738433</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.28905560976159</v>
+        <v>2.503126514021801</v>
       </c>
       <c r="C14">
-        <v>0.05483489307577827</v>
+        <v>0.1861483219026923</v>
       </c>
       <c r="D14">
-        <v>0.003031498518937248</v>
+        <v>0.001509419818893853</v>
       </c>
       <c r="E14">
-        <v>0.06602744983675546</v>
+        <v>0.02210373516335729</v>
       </c>
       <c r="F14">
-        <v>4.757295634603963</v>
+        <v>3.226897692893971</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1795531279775915</v>
+        <v>0.07374685729226904</v>
       </c>
       <c r="K14">
-        <v>1.75783601017028</v>
+        <v>2.303253076286722</v>
       </c>
       <c r="L14">
-        <v>0.2753357080556995</v>
+        <v>0.1716107911726255</v>
       </c>
       <c r="M14">
-        <v>0.4685650046134029</v>
+        <v>0.4411291927044871</v>
       </c>
       <c r="N14">
-        <v>4.931948821413073</v>
+        <v>2.851299264461289</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.284082204215622</v>
+        <v>2.478004030910427</v>
       </c>
       <c r="C15">
-        <v>0.05426443287119298</v>
+        <v>0.1839208535767085</v>
       </c>
       <c r="D15">
-        <v>0.003030674677759748</v>
+        <v>0.001509870864781604</v>
       </c>
       <c r="E15">
-        <v>0.06604366562141628</v>
+        <v>0.02207841981280367</v>
       </c>
       <c r="F15">
-        <v>4.754825985474525</v>
+        <v>3.210531644824897</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1796013274462016</v>
+        <v>0.07380883136711525</v>
       </c>
       <c r="K15">
-        <v>1.752700485840052</v>
+        <v>2.27874977788909</v>
       </c>
       <c r="L15">
-        <v>0.2751696137626496</v>
+        <v>0.1702941232423214</v>
       </c>
       <c r="M15">
-        <v>0.4677910050555738</v>
+        <v>0.4369218615772397</v>
       </c>
       <c r="N15">
-        <v>4.932283220370749</v>
+        <v>2.850832641178897</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.255913971357757</v>
+        <v>2.335324548996482</v>
       </c>
       <c r="C16">
-        <v>0.05099958535612359</v>
+        <v>0.17125216561179</v>
       </c>
       <c r="D16">
-        <v>0.003026580942293577</v>
+        <v>0.001513299009462621</v>
       </c>
       <c r="E16">
-        <v>0.06614024818817388</v>
+        <v>0.0219384792738806</v>
       </c>
       <c r="F16">
-        <v>4.741135949515012</v>
+        <v>3.118369398867671</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1798850994129051</v>
+        <v>0.07417761126423805</v>
       </c>
       <c r="K16">
-        <v>1.723541114289503</v>
+        <v>2.139541194313409</v>
       </c>
       <c r="L16">
-        <v>0.2742499518341859</v>
+        <v>0.1628287619038886</v>
       </c>
       <c r="M16">
-        <v>0.4634204974345977</v>
+        <v>0.4130345798059381</v>
       </c>
       <c r="N16">
-        <v>4.934471632974137</v>
+        <v>2.84909625328612</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.238930412144043</v>
+        <v>2.248883305537959</v>
       </c>
       <c r="C17">
-        <v>0.04900043417136146</v>
+        <v>0.16355999540977</v>
       </c>
       <c r="D17">
-        <v>0.003024632721944087</v>
+        <v>0.001516027335917158</v>
       </c>
       <c r="E17">
-        <v>0.06620276802622627</v>
+        <v>0.02185711170333615</v>
       </c>
       <c r="F17">
-        <v>4.733150362289336</v>
+        <v>3.063218717301353</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1800659396659707</v>
+        <v>0.07441582726294627</v>
       </c>
       <c r="K17">
-        <v>1.705893975698416</v>
+        <v>2.055160737115727</v>
       </c>
       <c r="L17">
-        <v>0.2737145038059552</v>
+        <v>0.1583172200673815</v>
       </c>
       <c r="M17">
-        <v>0.4607973574289872</v>
+        <v>0.3985696019815705</v>
       </c>
       <c r="N17">
-        <v>4.936056910807153</v>
+        <v>2.848839677170403</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.229271042079461</v>
+        <v>2.199541220069136</v>
       </c>
       <c r="C18">
-        <v>0.04785192642616209</v>
+        <v>0.1591626364734111</v>
       </c>
       <c r="D18">
-        <v>0.003023720459290224</v>
+        <v>0.001517779305128641</v>
       </c>
       <c r="E18">
-        <v>0.06623993205519074</v>
+        <v>0.02181192100537732</v>
       </c>
       <c r="F18">
-        <v>4.728709003989692</v>
+        <v>3.031983805107302</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1801724404020586</v>
+        <v>0.0745571763449675</v>
       </c>
       <c r="K18">
-        <v>1.695832465619191</v>
+        <v>2.006979014029071</v>
       </c>
       <c r="L18">
-        <v>0.2734171042084412</v>
+        <v>0.1557461806896683</v>
       </c>
       <c r="M18">
-        <v>0.4593099406316412</v>
+        <v>0.3903153602431075</v>
       </c>
       <c r="N18">
-        <v>4.937057914321827</v>
+        <v>2.848978571734747</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.226019294536343</v>
+        <v>2.182897400005572</v>
       </c>
       <c r="C19">
-        <v>0.04746329174345476</v>
+        <v>0.157678188911305</v>
       </c>
       <c r="D19">
-        <v>0.003023447488502029</v>
+        <v>0.001518399704949047</v>
       </c>
       <c r="E19">
-        <v>0.06625272225028311</v>
+        <v>0.02179689330620338</v>
       </c>
       <c r="F19">
-        <v>4.727231301377387</v>
+        <v>3.021489550564638</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1802089270756912</v>
+        <v>0.07460577263507062</v>
       </c>
       <c r="K19">
-        <v>1.692441040157433</v>
+        <v>1.9907238093584</v>
       </c>
       <c r="L19">
-        <v>0.2733182277686339</v>
+        <v>0.1548796634593614</v>
       </c>
       <c r="M19">
-        <v>0.4588099946198199</v>
+        <v>0.3875315344081329</v>
       </c>
       <c r="N19">
-        <v>4.937412154290939</v>
+        <v>2.849073821980909</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.240727048755502</v>
+        <v>2.258045633836446</v>
       </c>
       <c r="C20">
-        <v>0.0492131069745767</v>
+        <v>0.164375997908266</v>
       </c>
       <c r="D20">
-        <v>0.003024818585610767</v>
+        <v>0.001515716982956938</v>
       </c>
       <c r="E20">
-        <v>0.06619598810670535</v>
+        <v>0.02186560600113641</v>
       </c>
       <c r="F20">
-        <v>4.733984737928139</v>
+        <v>3.06903874989365</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1800464316815926</v>
+        <v>0.07439001873001416</v>
       </c>
       <c r="K20">
-        <v>1.707763368498803</v>
+        <v>2.064106278236125</v>
       </c>
       <c r="L20">
-        <v>0.2737704089543271</v>
+        <v>0.1587949837660645</v>
       </c>
       <c r="M20">
-        <v>0.4610743865949232</v>
+        <v>0.4001025461879664</v>
       </c>
       <c r="N20">
-        <v>4.935878923628721</v>
+        <v>2.848837106677095</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.29144636923229</v>
+        <v>2.515197080440998</v>
       </c>
       <c r="C21">
-        <v>0.05510851972105968</v>
+        <v>0.1872182400193196</v>
       </c>
       <c r="D21">
-        <v>0.003031904623958859</v>
+        <v>0.001509220350081719</v>
       </c>
       <c r="E21">
-        <v>0.06601973851145448</v>
+        <v>0.02211596675529126</v>
       </c>
       <c r="F21">
-        <v>4.758488078988023</v>
+        <v>3.234775304335983</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1795301486303771</v>
+        <v>0.07371738281824669</v>
       </c>
       <c r="K21">
-        <v>1.760303413351323</v>
+        <v>2.315025349722418</v>
       </c>
       <c r="L21">
-        <v>0.2754159230580839</v>
+        <v>0.1722436282391442</v>
       </c>
       <c r="M21">
-        <v>0.4689373070211005</v>
+        <v>0.4431508177549333</v>
       </c>
       <c r="N21">
-        <v>4.931793282100358</v>
+        <v>2.851540016859332</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.32556457349483</v>
+        <v>2.687124762460996</v>
       </c>
       <c r="C22">
-        <v>0.05897393911791937</v>
+        <v>0.2024378967303164</v>
       </c>
       <c r="D22">
-        <v>0.003038362459903965</v>
+        <v>0.001507671208324624</v>
       </c>
       <c r="E22">
-        <v>0.06591521553856428</v>
+        <v>0.02229474690673694</v>
       </c>
       <c r="F22">
-        <v>4.775852926325797</v>
+        <v>3.347946565328556</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.179214790133063</v>
+        <v>0.07331789832895552</v>
       </c>
       <c r="K22">
-        <v>1.795430437648605</v>
+        <v>2.482652888675858</v>
       </c>
       <c r="L22">
-        <v>0.2765852005556368</v>
+        <v>0.1812718828174553</v>
       </c>
       <c r="M22">
-        <v>0.4742658235654815</v>
+        <v>0.4719547199340113</v>
       </c>
       <c r="N22">
-        <v>4.92991775065758</v>
+        <v>2.856093286216918</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.307266345851474</v>
+        <v>2.594983928139072</v>
       </c>
       <c r="C23">
-        <v>0.05690973583598691</v>
+        <v>0.1942856450663868</v>
       </c>
       <c r="D23">
-        <v>0.00303474998392339</v>
+        <v>0.001508193484093923</v>
       </c>
       <c r="E23">
-        <v>0.06597002821857156</v>
+        <v>0.0221978995338743</v>
       </c>
       <c r="F23">
-        <v>4.766461443798335</v>
+        <v>3.287074065488497</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1793810879011701</v>
+        <v>0.07352736083063149</v>
       </c>
       <c r="K23">
-        <v>1.776610302738959</v>
+        <v>2.392828114849323</v>
       </c>
       <c r="L23">
-        <v>0.2759525651523305</v>
+        <v>0.1764301438761819</v>
       </c>
       <c r="M23">
-        <v>0.4714045617622205</v>
+        <v>0.4565159289927792</v>
       </c>
       <c r="N23">
-        <v>4.930846023776724</v>
+        <v>2.85339600125829</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.239914463175921</v>
+        <v>2.253902247620658</v>
       </c>
       <c r="C24">
-        <v>0.04911695501792224</v>
+        <v>0.1640070059380037</v>
       </c>
       <c r="D24">
-        <v>0.00302473390928526</v>
+        <v>0.001515856733314891</v>
       </c>
       <c r="E24">
-        <v>0.06619904950601896</v>
+        <v>0.02186176078971069</v>
       </c>
       <c r="F24">
-        <v>4.733607050475001</v>
+        <v>3.066406048733739</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1800552433501998</v>
+        <v>0.07440167309302481</v>
       </c>
       <c r="K24">
-        <v>1.706917954151777</v>
+        <v>2.06006097748562</v>
       </c>
       <c r="L24">
-        <v>0.2737451017245149</v>
+        <v>0.158578916353342</v>
       </c>
       <c r="M24">
-        <v>0.4609490773455818</v>
+        <v>0.3994093103207206</v>
       </c>
       <c r="N24">
-        <v>4.935959112476127</v>
+        <v>2.848837379235988</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.171437214005039</v>
+        <v>1.900149258831846</v>
       </c>
       <c r="C25">
-        <v>0.0407625729324792</v>
+        <v>0.132354353871321</v>
       </c>
       <c r="D25">
-        <v>0.00302191177864497</v>
+        <v>0.001530722905569881</v>
       </c>
       <c r="E25">
-        <v>0.06649216269014779</v>
+        <v>0.02156035056128758</v>
       </c>
       <c r="F25">
-        <v>4.703969869793028</v>
+        <v>2.846726973374174</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1808775294856453</v>
+        <v>0.0755097268550422</v>
       </c>
       <c r="K25">
-        <v>1.635132979706299</v>
+        <v>1.714325660441489</v>
       </c>
       <c r="L25">
-        <v>0.2717685249062356</v>
+        <v>0.1402240909842405</v>
       </c>
       <c r="M25">
-        <v>0.4504873723807137</v>
+        <v>0.3402797101121138</v>
       </c>
       <c r="N25">
-        <v>4.944884215423258</v>
+        <v>2.854762989011732</v>
       </c>
       <c r="O25">
         <v>0</v>
